--- a/data/evaluation/evaluation_South_Spring_Celery.xlsx
+++ b/data/evaluation/evaluation_South_Spring_Celery.xlsx
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2684.977272727273</v>
+        <v>2653.159090909091</v>
       </c>
       <c r="C3" t="n">
-        <v>14930494.57954546</v>
+        <v>14806403.67045454</v>
       </c>
       <c r="D3" t="n">
-        <v>3863.999816193766</v>
+        <v>3847.908999762669</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.1345419796903817</v>
+        <v>-0.1251125301224849</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2497.524506124446</v>
+        <v>2499.070091489133</v>
       </c>
       <c r="C4" t="n">
-        <v>11942757.4458434</v>
+        <v>11454126.21284983</v>
       </c>
       <c r="D4" t="n">
-        <v>3455.829487379753</v>
+        <v>3384.39451199913</v>
       </c>
       <c r="E4" t="n">
-        <v>0.09249090153169415</v>
+        <v>0.1296211280935502</v>
       </c>
     </row>
     <row r="5">
